--- a/TESLA VALUATION MODEL v1.0.xlsx
+++ b/TESLA VALUATION MODEL v1.0.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/396cb21c71a230ab/Área de Trabalho/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{1F45B1CF-B245-4091-AB80-945FB70670CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{15EA8F2E-ED7A-4220-BAE2-9D53FBC0641F}"/>
+  <xr:revisionPtr revIDLastSave="323" documentId="8_{1F45B1CF-B245-4091-AB80-945FB70670CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6333ACB9-81CD-4585-A3A1-937571CD8860}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="680" activeTab="1" xr2:uid="{8E23AE88-1329-4286-B46E-1012A5220A03}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" tabRatio="680" activeTab="2" xr2:uid="{8E23AE88-1329-4286-B46E-1012A5220A03}"/>
   </bookViews>
   <sheets>
     <sheet name="Production&amp;Deliveries" sheetId="1" r:id="rId1"/>
     <sheet name="Revenue&amp;Profit" sheetId="4" r:id="rId2"/>
-    <sheet name="Production 2020-2030" sheetId="7" r:id="rId3"/>
-    <sheet name="Useful Twitter model" sheetId="8" r:id="rId4"/>
-    <sheet name="Folha1" sheetId="6" r:id="rId5"/>
+    <sheet name="DCF Model" sheetId="9" r:id="rId3"/>
+    <sheet name="Production 2020-2030" sheetId="7" r:id="rId4"/>
+    <sheet name="Useful Twitter model" sheetId="8" r:id="rId5"/>
+    <sheet name="Folha1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="178">
   <si>
     <t>Model 3</t>
   </si>
@@ -457,23 +458,138 @@
   </si>
   <si>
     <t>$B</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Revenue Growth (% Change)</t>
+  </si>
+  <si>
+    <t>Cost of Goods Sold (% of Revenue)</t>
+  </si>
+  <si>
+    <t>Accounts Receivable (Days)</t>
+  </si>
+  <si>
+    <t>Inventory (Days)</t>
+  </si>
+  <si>
+    <t>Accounts Payable (Days)</t>
+  </si>
+  <si>
+    <t>Income Statement</t>
+  </si>
+  <si>
+    <t>Total Revenue</t>
+  </si>
+  <si>
+    <t>Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Automotive</t>
+  </si>
+  <si>
+    <t>Total Cost of Revenue</t>
+  </si>
+  <si>
+    <t>Operating Expenses</t>
+  </si>
+  <si>
+    <t>Selling, general and administrative</t>
+  </si>
+  <si>
+    <t>Restructuring and other</t>
+  </si>
+  <si>
+    <t>Research and development</t>
+  </si>
+  <si>
+    <t>Interest income</t>
+  </si>
+  <si>
+    <t>Interest expense</t>
+  </si>
+  <si>
+    <t>Other expense, net</t>
+  </si>
+  <si>
+    <t>Provision for income taxes</t>
+  </si>
+  <si>
+    <t>Income (loss) from operations</t>
+  </si>
+  <si>
+    <t>Net Income (loss)</t>
+  </si>
+  <si>
+    <t>Income (loss) before income taxes</t>
+  </si>
+  <si>
+    <t>Research and development (% of Revenue)</t>
+  </si>
+  <si>
+    <t>Selling, general and administrative (% of Revenue)</t>
+  </si>
+  <si>
+    <t>Restructuring and other (% of Revenue)</t>
+  </si>
+  <si>
+    <t>Automotive Gross Margin (%)</t>
+  </si>
+  <si>
+    <t>Operating Margin (%)</t>
+  </si>
+  <si>
+    <t>Profit Margin (%)</t>
+  </si>
+  <si>
+    <t>Capital Expenditures</t>
+  </si>
+  <si>
+    <t>Discounted Cash Flow Model</t>
+  </si>
+  <si>
+    <t>Total Cars Delivered</t>
+  </si>
+  <si>
+    <t>Cars Delivered Growth</t>
+  </si>
+  <si>
+    <t>Average Selling Price (Average)</t>
+  </si>
+  <si>
+    <t>Tax Rate</t>
+  </si>
+  <si>
+    <t>Net Income</t>
+  </si>
+  <si>
+    <t>Less: CAPEX</t>
+  </si>
+  <si>
+    <t>Less: Changes in NWC</t>
+  </si>
+  <si>
+    <t>Free Cash Flow</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
-    <numFmt numFmtId="168" formatCode="##0.00;\(##0.00\)"/>
-    <numFmt numFmtId="169" formatCode="##0;\(##0\)"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="174" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="##0.00;\(##0.00\)"/>
+    <numFmt numFmtId="167" formatCode="##0;\(##0\)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="0.000%"/>
+    <numFmt numFmtId="179" formatCode="\ #,##0_);\(\ #,##0\)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -579,6 +695,44 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -716,13 +870,13 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="173" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="174" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -745,88 +899,88 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,7 +989,7 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -847,7 +1001,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -856,7 +1010,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -865,7 +1019,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -874,16 +1028,16 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -893,8 +1047,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -922,14 +1076,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="3" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -940,22 +1094,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -965,6 +1119,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1303,7 +1508,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P31" sqref="P31"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5860,8 +6065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC1525C3-4574-4F32-8D84-13FDEBA1DCC8}">
   <dimension ref="B1:S46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="P39" sqref="P39:P40"/>
@@ -8306,11 +8511,2182 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{037D5698-F042-482B-8953-F3F74812771F}">
+  <dimension ref="A2:S52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B12" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31:N31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="44.42578125" style="88" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="88"/>
+    <col min="3" max="9" width="13.7109375" style="88" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="10" max="10" width="13.7109375" style="88" customWidth="1" collapsed="1"/>
+    <col min="11" max="19" width="13.7109375" style="88" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="88"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:19">
+      <c r="C2" s="88">
+        <v>2009</v>
+      </c>
+      <c r="D2" s="88">
+        <v>2010</v>
+      </c>
+      <c r="E2" s="88">
+        <v>2011</v>
+      </c>
+      <c r="F2" s="88">
+        <v>2012</v>
+      </c>
+      <c r="G2" s="88">
+        <v>2013</v>
+      </c>
+      <c r="H2" s="88">
+        <v>2014</v>
+      </c>
+      <c r="I2" s="88">
+        <v>2015</v>
+      </c>
+      <c r="J2" s="88">
+        <v>2016</v>
+      </c>
+      <c r="K2" s="88">
+        <v>2017</v>
+      </c>
+      <c r="L2" s="88">
+        <v>2018</v>
+      </c>
+      <c r="M2" s="88">
+        <v>2019</v>
+      </c>
+      <c r="N2" s="88">
+        <v>2020</v>
+      </c>
+      <c r="O2" s="88">
+        <v>2021</v>
+      </c>
+      <c r="P2" s="88">
+        <v>2022</v>
+      </c>
+      <c r="Q2" s="88">
+        <v>2023</v>
+      </c>
+      <c r="R2" s="88">
+        <v>2024</v>
+      </c>
+      <c r="S2" s="88">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A4" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="96"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="96"/>
+      <c r="P4" s="96"/>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+    </row>
+    <row r="5" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A5" s="97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="93"/>
+      <c r="I5" s="93"/>
+      <c r="J5" s="93"/>
+      <c r="K5" s="93"/>
+      <c r="L5" s="93">
+        <v>245491</v>
+      </c>
+      <c r="M5" s="93">
+        <v>367656</v>
+      </c>
+      <c r="N5" s="93">
+        <v>502159</v>
+      </c>
+      <c r="O5" s="98">
+        <f>+'Production 2020-2030'!M9</f>
+        <v>1062500</v>
+      </c>
+      <c r="P5" s="98">
+        <f>+'Production 2020-2030'!N9</f>
+        <v>1806250</v>
+      </c>
+      <c r="Q5" s="98">
+        <f>+'Production 2020-2030'!O9</f>
+        <v>2953750</v>
+      </c>
+      <c r="R5" s="98">
+        <f>+'Production 2020-2030'!P9</f>
+        <v>4675000</v>
+      </c>
+      <c r="S5" s="98">
+        <f>+'Production 2020-2030'!Q9</f>
+        <v>7437500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="88" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="92">
+        <v>111943</v>
+      </c>
+      <c r="D6" s="92">
+        <v>97078</v>
+      </c>
+      <c r="E6" s="92">
+        <v>148568</v>
+      </c>
+      <c r="F6" s="92">
+        <v>385699</v>
+      </c>
+      <c r="G6" s="92">
+        <v>1997786</v>
+      </c>
+      <c r="H6" s="92">
+        <v>3007012</v>
+      </c>
+      <c r="I6" s="92">
+        <v>3740973</v>
+      </c>
+      <c r="J6" s="92">
+        <v>6350766</v>
+      </c>
+      <c r="K6" s="92">
+        <v>9641300</v>
+      </c>
+      <c r="L6" s="92">
+        <v>18515000</v>
+      </c>
+      <c r="M6" s="92">
+        <v>20821000</v>
+      </c>
+      <c r="N6" s="92">
+        <v>27236000</v>
+      </c>
+      <c r="O6" s="99">
+        <f>+O30*O5/1000</f>
+        <v>53125000</v>
+      </c>
+      <c r="P6" s="99">
+        <f t="shared" ref="P6:S6" si="0">+P30*P5/1000</f>
+        <v>72250000</v>
+      </c>
+      <c r="Q6" s="99">
+        <f t="shared" si="0"/>
+        <v>103381250</v>
+      </c>
+      <c r="R6" s="99">
+        <f t="shared" si="0"/>
+        <v>140250000</v>
+      </c>
+      <c r="S6" s="99">
+        <f t="shared" si="0"/>
+        <v>223125000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="89" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="92">
+        <v>111943</v>
+      </c>
+      <c r="D7" s="92">
+        <v>116744</v>
+      </c>
+      <c r="E7" s="92">
+        <v>204242</v>
+      </c>
+      <c r="F7" s="92">
+        <v>413256</v>
+      </c>
+      <c r="G7" s="92">
+        <v>2013496</v>
+      </c>
+      <c r="H7" s="92">
+        <v>3198356</v>
+      </c>
+      <c r="I7" s="92">
+        <v>4046025</v>
+      </c>
+      <c r="J7" s="92">
+        <v>7000132</v>
+      </c>
+      <c r="K7" s="92">
+        <v>11758751</v>
+      </c>
+      <c r="L7" s="92">
+        <v>21461000</v>
+      </c>
+      <c r="M7" s="92">
+        <v>24578000</v>
+      </c>
+      <c r="N7" s="92">
+        <v>31536000</v>
+      </c>
+      <c r="O7" s="99">
+        <f>+SUM(O6)*1.1</f>
+        <v>58437500.000000007</v>
+      </c>
+      <c r="P7" s="99">
+        <f t="shared" ref="P7:S7" si="1">+SUM(P6)*1.1</f>
+        <v>79475000</v>
+      </c>
+      <c r="Q7" s="99">
+        <f t="shared" si="1"/>
+        <v>113719375.00000001</v>
+      </c>
+      <c r="R7" s="99">
+        <f t="shared" si="1"/>
+        <v>154275000</v>
+      </c>
+      <c r="S7" s="99">
+        <f t="shared" si="1"/>
+        <v>245437500.00000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="89"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="90"/>
+      <c r="L8" s="90"/>
+      <c r="M8" s="90"/>
+      <c r="N8" s="90"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
+      <c r="S8" s="99"/>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="89" t="s">
+        <v>148</v>
+      </c>
+      <c r="O9" s="100"/>
+      <c r="P9" s="100"/>
+      <c r="Q9" s="100"/>
+      <c r="R9" s="100"/>
+      <c r="S9" s="100"/>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="92">
+        <v>102408</v>
+      </c>
+      <c r="D10" s="92">
+        <v>79982</v>
+      </c>
+      <c r="E10" s="92">
+        <v>115482</v>
+      </c>
+      <c r="F10" s="92">
+        <v>371658</v>
+      </c>
+      <c r="G10" s="92">
+        <v>1543878</v>
+      </c>
+      <c r="H10" s="92">
+        <v>2145749</v>
+      </c>
+      <c r="I10" s="92">
+        <v>2823302</v>
+      </c>
+      <c r="J10" s="92">
+        <v>4750081</v>
+      </c>
+      <c r="K10" s="92">
+        <v>7432704</v>
+      </c>
+      <c r="L10" s="92">
+        <v>14174000</v>
+      </c>
+      <c r="M10" s="92">
+        <v>16398000</v>
+      </c>
+      <c r="N10" s="92">
+        <v>20259000</v>
+      </c>
+      <c r="O10" s="99">
+        <f>+O11/1.1</f>
+        <v>39843750</v>
+      </c>
+      <c r="P10" s="99">
+        <f t="shared" ref="P10:S10" si="2">+P11/1.1</f>
+        <v>54187499.999999993</v>
+      </c>
+      <c r="Q10" s="99">
+        <f t="shared" si="2"/>
+        <v>77535937.5</v>
+      </c>
+      <c r="R10" s="99">
+        <f t="shared" si="2"/>
+        <v>105187499.99999999</v>
+      </c>
+      <c r="S10" s="99">
+        <f t="shared" si="2"/>
+        <v>167343750</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="89" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="92">
+        <v>102408</v>
+      </c>
+      <c r="D11" s="92">
+        <v>86013</v>
+      </c>
+      <c r="E11" s="92">
+        <v>142647</v>
+      </c>
+      <c r="F11" s="92">
+        <v>383189</v>
+      </c>
+      <c r="G11" s="92">
+        <v>1557234</v>
+      </c>
+      <c r="H11" s="92">
+        <v>2316685</v>
+      </c>
+      <c r="I11" s="92">
+        <v>3122522</v>
+      </c>
+      <c r="J11" s="92">
+        <v>5400875</v>
+      </c>
+      <c r="K11" s="92">
+        <v>9536264</v>
+      </c>
+      <c r="L11" s="92">
+        <v>17419000</v>
+      </c>
+      <c r="M11" s="92">
+        <v>20509000</v>
+      </c>
+      <c r="N11" s="92">
+        <v>24906000</v>
+      </c>
+      <c r="O11" s="99">
+        <f>+O32*O7</f>
+        <v>43828125.000000007</v>
+      </c>
+      <c r="P11" s="99">
+        <f t="shared" ref="P11:S11" si="3">+P32*P7</f>
+        <v>59606250</v>
+      </c>
+      <c r="Q11" s="99">
+        <f t="shared" si="3"/>
+        <v>85289531.250000015</v>
+      </c>
+      <c r="R11" s="99">
+        <f t="shared" si="3"/>
+        <v>115706250</v>
+      </c>
+      <c r="S11" s="99">
+        <f t="shared" si="3"/>
+        <v>184078125.00000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="89"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="99"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="99"/>
+      <c r="R12" s="99"/>
+      <c r="S12" s="99"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="89" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="92"/>
+      <c r="L13" s="92"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="99"/>
+      <c r="P13" s="99"/>
+      <c r="Q13" s="99"/>
+      <c r="R13" s="99"/>
+      <c r="S13" s="99"/>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="88" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="92">
+        <v>19282</v>
+      </c>
+      <c r="D14" s="92">
+        <v>92996</v>
+      </c>
+      <c r="E14" s="92">
+        <v>208981</v>
+      </c>
+      <c r="F14" s="92">
+        <v>273978</v>
+      </c>
+      <c r="G14" s="92">
+        <v>231976</v>
+      </c>
+      <c r="H14" s="92">
+        <v>464700</v>
+      </c>
+      <c r="I14" s="92">
+        <v>717900</v>
+      </c>
+      <c r="J14" s="92">
+        <v>834408</v>
+      </c>
+      <c r="K14" s="92">
+        <v>1378073</v>
+      </c>
+      <c r="L14" s="92">
+        <v>1460000</v>
+      </c>
+      <c r="M14" s="92">
+        <v>1343000</v>
+      </c>
+      <c r="N14" s="92">
+        <v>1491000</v>
+      </c>
+      <c r="O14" s="99">
+        <f>+O37*O7</f>
+        <v>2629687.5000000005</v>
+      </c>
+      <c r="P14" s="99">
+        <f t="shared" ref="P14:S14" si="4">+P37*P7</f>
+        <v>3576375</v>
+      </c>
+      <c r="Q14" s="99">
+        <f t="shared" si="4"/>
+        <v>5117371.8750000009</v>
+      </c>
+      <c r="R14" s="99">
+        <f t="shared" si="4"/>
+        <v>6942375</v>
+      </c>
+      <c r="S14" s="99">
+        <f t="shared" si="4"/>
+        <v>11044687.500000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="92">
+        <v>42150</v>
+      </c>
+      <c r="D15" s="92">
+        <v>84573</v>
+      </c>
+      <c r="E15" s="92">
+        <v>104102</v>
+      </c>
+      <c r="F15" s="92">
+        <v>150372</v>
+      </c>
+      <c r="G15" s="92">
+        <v>285569</v>
+      </c>
+      <c r="H15" s="92">
+        <v>603660</v>
+      </c>
+      <c r="I15" s="92">
+        <v>922232</v>
+      </c>
+      <c r="J15" s="92">
+        <v>1432189</v>
+      </c>
+      <c r="K15" s="92">
+        <v>2476500</v>
+      </c>
+      <c r="L15" s="92">
+        <v>2835000</v>
+      </c>
+      <c r="M15" s="92">
+        <v>2646000</v>
+      </c>
+      <c r="N15" s="92">
+        <v>3145000</v>
+      </c>
+      <c r="O15" s="99">
+        <f>+O7*O38</f>
+        <v>4675000.0000000009</v>
+      </c>
+      <c r="P15" s="99">
+        <f t="shared" ref="P15:S15" si="5">+P7*P38</f>
+        <v>6358000</v>
+      </c>
+      <c r="Q15" s="99">
+        <f t="shared" si="5"/>
+        <v>9097550.0000000019</v>
+      </c>
+      <c r="R15" s="99">
+        <f t="shared" si="5"/>
+        <v>12342000</v>
+      </c>
+      <c r="S15" s="99">
+        <f t="shared" si="5"/>
+        <v>19635000.000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="88" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="92">
+        <v>0</v>
+      </c>
+      <c r="D16" s="92">
+        <v>0</v>
+      </c>
+      <c r="E16" s="92">
+        <v>0</v>
+      </c>
+      <c r="F16" s="92">
+        <v>0</v>
+      </c>
+      <c r="G16" s="92">
+        <v>0</v>
+      </c>
+      <c r="H16" s="92">
+        <v>0</v>
+      </c>
+      <c r="I16" s="92">
+        <v>0</v>
+      </c>
+      <c r="J16" s="92">
+        <v>0</v>
+      </c>
+      <c r="K16" s="92">
+        <v>0</v>
+      </c>
+      <c r="L16" s="92">
+        <v>135000</v>
+      </c>
+      <c r="M16" s="92">
+        <v>149000</v>
+      </c>
+      <c r="N16" s="92">
+        <v>0</v>
+      </c>
+      <c r="O16" s="99">
+        <f>+O7*O39</f>
+        <v>584375.00000000012</v>
+      </c>
+      <c r="P16" s="99">
+        <f t="shared" ref="P16:S16" si="6">+P7*P39</f>
+        <v>794750</v>
+      </c>
+      <c r="Q16" s="99">
+        <f t="shared" si="6"/>
+        <v>1137193.7500000002</v>
+      </c>
+      <c r="R16" s="99">
+        <f t="shared" si="6"/>
+        <v>1542750</v>
+      </c>
+      <c r="S16" s="99">
+        <f t="shared" si="6"/>
+        <v>2454375.0000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="89" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="92">
+        <f>+SUM(C14:C16)</f>
+        <v>61432</v>
+      </c>
+      <c r="D17" s="92">
+        <f t="shared" ref="D17:N17" si="7">+SUM(D14:D16)</f>
+        <v>177569</v>
+      </c>
+      <c r="E17" s="92">
+        <f t="shared" si="7"/>
+        <v>313083</v>
+      </c>
+      <c r="F17" s="92">
+        <f t="shared" si="7"/>
+        <v>424350</v>
+      </c>
+      <c r="G17" s="92">
+        <f t="shared" si="7"/>
+        <v>517545</v>
+      </c>
+      <c r="H17" s="92">
+        <f t="shared" si="7"/>
+        <v>1068360</v>
+      </c>
+      <c r="I17" s="92">
+        <f t="shared" si="7"/>
+        <v>1640132</v>
+      </c>
+      <c r="J17" s="92">
+        <f t="shared" si="7"/>
+        <v>2266597</v>
+      </c>
+      <c r="K17" s="92">
+        <f t="shared" si="7"/>
+        <v>3854573</v>
+      </c>
+      <c r="L17" s="92">
+        <f t="shared" si="7"/>
+        <v>4430000</v>
+      </c>
+      <c r="M17" s="92">
+        <f t="shared" si="7"/>
+        <v>4138000</v>
+      </c>
+      <c r="N17" s="92">
+        <f t="shared" si="7"/>
+        <v>4636000</v>
+      </c>
+      <c r="O17" s="99">
+        <f t="shared" ref="O17" si="8">+SUM(O14:O16)</f>
+        <v>7889062.5000000019</v>
+      </c>
+      <c r="P17" s="99">
+        <f t="shared" ref="P17" si="9">+SUM(P14:P16)</f>
+        <v>10729125</v>
+      </c>
+      <c r="Q17" s="99">
+        <f t="shared" ref="Q17" si="10">+SUM(Q14:Q16)</f>
+        <v>15352115.625000004</v>
+      </c>
+      <c r="R17" s="99">
+        <f t="shared" ref="R17" si="11">+SUM(R14:R16)</f>
+        <v>20827125</v>
+      </c>
+      <c r="S17" s="99">
+        <f t="shared" ref="S17" si="12">+SUM(S14:S16)</f>
+        <v>33134062.500000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="89" customFormat="1">
+      <c r="A18" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="C18" s="94">
+        <f>+C7-C11-C17</f>
+        <v>-51897</v>
+      </c>
+      <c r="D18" s="94">
+        <f t="shared" ref="D18:N18" si="13">+D7-D11-D17</f>
+        <v>-146838</v>
+      </c>
+      <c r="E18" s="94">
+        <f t="shared" si="13"/>
+        <v>-251488</v>
+      </c>
+      <c r="F18" s="94">
+        <f t="shared" si="13"/>
+        <v>-394283</v>
+      </c>
+      <c r="G18" s="94">
+        <f t="shared" si="13"/>
+        <v>-61283</v>
+      </c>
+      <c r="H18" s="94">
+        <f t="shared" si="13"/>
+        <v>-186689</v>
+      </c>
+      <c r="I18" s="94">
+        <f t="shared" si="13"/>
+        <v>-716629</v>
+      </c>
+      <c r="J18" s="94">
+        <f t="shared" si="13"/>
+        <v>-667340</v>
+      </c>
+      <c r="K18" s="94">
+        <f t="shared" si="13"/>
+        <v>-1632086</v>
+      </c>
+      <c r="L18" s="94">
+        <f t="shared" si="13"/>
+        <v>-388000</v>
+      </c>
+      <c r="M18" s="94">
+        <f t="shared" si="13"/>
+        <v>-69000</v>
+      </c>
+      <c r="N18" s="94">
+        <f t="shared" si="13"/>
+        <v>1994000</v>
+      </c>
+      <c r="O18" s="101">
+        <f t="shared" ref="O18" si="14">+O7-O11-O17</f>
+        <v>6720312.4999999981</v>
+      </c>
+      <c r="P18" s="101">
+        <f t="shared" ref="P18" si="15">+P7-P11-P17</f>
+        <v>9139625</v>
+      </c>
+      <c r="Q18" s="101">
+        <f t="shared" ref="Q18" si="16">+Q7-Q11-Q17</f>
+        <v>13077728.124999996</v>
+      </c>
+      <c r="R18" s="101">
+        <f t="shared" ref="R18" si="17">+R7-R11-R17</f>
+        <v>17741625</v>
+      </c>
+      <c r="S18" s="101">
+        <f t="shared" ref="S18" si="18">+S7-S11-S17</f>
+        <v>28225312.499999993</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="89"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="92"/>
+      <c r="L19" s="92"/>
+      <c r="M19" s="92"/>
+      <c r="N19" s="92"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
+      <c r="Q19" s="99"/>
+      <c r="R19" s="99"/>
+      <c r="S19" s="99"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="88" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="89"/>
+      <c r="C20" s="92">
+        <v>159</v>
+      </c>
+      <c r="D20" s="92">
+        <v>258</v>
+      </c>
+      <c r="E20" s="92">
+        <v>255</v>
+      </c>
+      <c r="F20" s="92">
+        <v>288</v>
+      </c>
+      <c r="G20" s="92">
+        <v>189</v>
+      </c>
+      <c r="H20" s="92">
+        <v>1126</v>
+      </c>
+      <c r="I20" s="92">
+        <v>1508</v>
+      </c>
+      <c r="J20" s="92">
+        <v>8530</v>
+      </c>
+      <c r="K20" s="92">
+        <v>19686</v>
+      </c>
+      <c r="L20" s="92">
+        <v>24000</v>
+      </c>
+      <c r="M20" s="92">
+        <v>44000</v>
+      </c>
+      <c r="N20" s="92">
+        <v>30000</v>
+      </c>
+      <c r="O20" s="99">
+        <f>+N20*1.1</f>
+        <v>33000</v>
+      </c>
+      <c r="P20" s="99">
+        <f t="shared" ref="P20:S20" si="19">+O20*1.1</f>
+        <v>36300</v>
+      </c>
+      <c r="Q20" s="99">
+        <f t="shared" si="19"/>
+        <v>39930</v>
+      </c>
+      <c r="R20" s="99">
+        <f t="shared" si="19"/>
+        <v>43923</v>
+      </c>
+      <c r="S20" s="99">
+        <f t="shared" si="19"/>
+        <v>48315.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" s="88" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" s="89"/>
+      <c r="C21" s="92">
+        <v>-2531</v>
+      </c>
+      <c r="D21" s="92">
+        <v>-992</v>
+      </c>
+      <c r="E21" s="92">
+        <v>-43</v>
+      </c>
+      <c r="F21" s="92">
+        <v>-254</v>
+      </c>
+      <c r="G21" s="92">
+        <v>-32934</v>
+      </c>
+      <c r="H21" s="92">
+        <v>-100886</v>
+      </c>
+      <c r="I21" s="92">
+        <v>-118851</v>
+      </c>
+      <c r="J21" s="92">
+        <v>-198810</v>
+      </c>
+      <c r="K21" s="92">
+        <v>-471259</v>
+      </c>
+      <c r="L21" s="92">
+        <v>-663000</v>
+      </c>
+      <c r="M21" s="92">
+        <v>-685000</v>
+      </c>
+      <c r="N21" s="92">
+        <v>-748000</v>
+      </c>
+      <c r="O21" s="99">
+        <f>+N21*1.1</f>
+        <v>-822800.00000000012</v>
+      </c>
+      <c r="P21" s="99">
+        <f t="shared" ref="P21:S21" si="20">+O21*1.1</f>
+        <v>-905080.00000000023</v>
+      </c>
+      <c r="Q21" s="99">
+        <f t="shared" si="20"/>
+        <v>-995588.00000000035</v>
+      </c>
+      <c r="R21" s="99">
+        <f t="shared" si="20"/>
+        <v>-1095146.8000000005</v>
+      </c>
+      <c r="S21" s="99">
+        <f t="shared" si="20"/>
+        <v>-1204661.4800000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="88" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="89"/>
+      <c r="C22" s="92">
+        <v>-1445</v>
+      </c>
+      <c r="D22" s="92">
+        <v>-6583</v>
+      </c>
+      <c r="E22" s="92">
+        <v>-2646</v>
+      </c>
+      <c r="F22" s="92">
+        <v>-1828</v>
+      </c>
+      <c r="G22" s="92">
+        <v>22602</v>
+      </c>
+      <c r="H22" s="92">
+        <v>1813</v>
+      </c>
+      <c r="I22" s="92">
+        <v>-41652</v>
+      </c>
+      <c r="J22" s="92">
+        <v>111272</v>
+      </c>
+      <c r="K22" s="92">
+        <v>-125373</v>
+      </c>
+      <c r="L22" s="92">
+        <v>22000</v>
+      </c>
+      <c r="M22" s="92">
+        <v>45000</v>
+      </c>
+      <c r="N22" s="92">
+        <v>-122000</v>
+      </c>
+      <c r="O22" s="99">
+        <f>+N22*1.1</f>
+        <v>-134200</v>
+      </c>
+      <c r="P22" s="99">
+        <f t="shared" ref="P22:S22" si="21">+O22*1.1</f>
+        <v>-147620</v>
+      </c>
+      <c r="Q22" s="99">
+        <f t="shared" si="21"/>
+        <v>-162382</v>
+      </c>
+      <c r="R22" s="99">
+        <f t="shared" si="21"/>
+        <v>-178620.2</v>
+      </c>
+      <c r="S22" s="99">
+        <f t="shared" si="21"/>
+        <v>-196482.22000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="89" customFormat="1">
+      <c r="A23" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="94">
+        <f>+SUM(C18:C22)</f>
+        <v>-55714</v>
+      </c>
+      <c r="D23" s="94">
+        <f t="shared" ref="D23:O23" si="22">+SUM(D18:D22)</f>
+        <v>-154155</v>
+      </c>
+      <c r="E23" s="94">
+        <f t="shared" si="22"/>
+        <v>-253922</v>
+      </c>
+      <c r="F23" s="94">
+        <f t="shared" si="22"/>
+        <v>-396077</v>
+      </c>
+      <c r="G23" s="94">
+        <f t="shared" si="22"/>
+        <v>-71426</v>
+      </c>
+      <c r="H23" s="94">
+        <f t="shared" si="22"/>
+        <v>-284636</v>
+      </c>
+      <c r="I23" s="94">
+        <f t="shared" si="22"/>
+        <v>-875624</v>
+      </c>
+      <c r="J23" s="94">
+        <f t="shared" si="22"/>
+        <v>-746348</v>
+      </c>
+      <c r="K23" s="94">
+        <f t="shared" si="22"/>
+        <v>-2209032</v>
+      </c>
+      <c r="L23" s="94">
+        <f t="shared" si="22"/>
+        <v>-1005000</v>
+      </c>
+      <c r="M23" s="94">
+        <f t="shared" si="22"/>
+        <v>-665000</v>
+      </c>
+      <c r="N23" s="94">
+        <f t="shared" si="22"/>
+        <v>1154000</v>
+      </c>
+      <c r="O23" s="101">
+        <f t="shared" si="22"/>
+        <v>5796312.4999999981</v>
+      </c>
+      <c r="P23" s="101">
+        <f t="shared" ref="P23" si="23">+SUM(P18:P22)</f>
+        <v>8123225</v>
+      </c>
+      <c r="Q23" s="101">
+        <f t="shared" ref="Q23" si="24">+SUM(Q18:Q22)</f>
+        <v>11959688.124999996</v>
+      </c>
+      <c r="R23" s="101">
+        <f t="shared" ref="R23" si="25">+SUM(R18:R22)</f>
+        <v>16511781</v>
+      </c>
+      <c r="S23" s="101">
+        <f t="shared" ref="S23" si="26">+SUM(S18:S22)</f>
+        <v>26872484.099999994</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="B24" s="89"/>
+      <c r="C24" s="92">
+        <v>26</v>
+      </c>
+      <c r="D24" s="92">
+        <v>173</v>
+      </c>
+      <c r="E24" s="92">
+        <v>489</v>
+      </c>
+      <c r="F24" s="92">
+        <v>136</v>
+      </c>
+      <c r="G24" s="92">
+        <v>2588</v>
+      </c>
+      <c r="H24" s="92">
+        <v>9404</v>
+      </c>
+      <c r="I24" s="92">
+        <v>13039</v>
+      </c>
+      <c r="J24" s="92">
+        <v>26698</v>
+      </c>
+      <c r="K24" s="92">
+        <v>31546</v>
+      </c>
+      <c r="L24" s="92">
+        <v>58000</v>
+      </c>
+      <c r="M24" s="92">
+        <v>110000</v>
+      </c>
+      <c r="N24" s="92">
+        <v>292000</v>
+      </c>
+      <c r="O24" s="99">
+        <f>+O23*0.25</f>
+        <v>1449078.1249999995</v>
+      </c>
+      <c r="P24" s="99">
+        <f t="shared" ref="P24:S24" si="27">+P23*0.25</f>
+        <v>2030806.25</v>
+      </c>
+      <c r="Q24" s="99">
+        <f t="shared" si="27"/>
+        <v>2989922.0312499991</v>
+      </c>
+      <c r="R24" s="99">
+        <f t="shared" si="27"/>
+        <v>4127945.25</v>
+      </c>
+      <c r="S24" s="99">
+        <f t="shared" si="27"/>
+        <v>6718121.0249999985</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="89" customFormat="1">
+      <c r="A25" s="89" t="s">
+        <v>160</v>
+      </c>
+      <c r="C25" s="94">
+        <f>+C23-C24</f>
+        <v>-55740</v>
+      </c>
+      <c r="D25" s="94">
+        <f t="shared" ref="D25:O25" si="28">+D23-D24</f>
+        <v>-154328</v>
+      </c>
+      <c r="E25" s="94">
+        <f t="shared" si="28"/>
+        <v>-254411</v>
+      </c>
+      <c r="F25" s="94">
+        <f t="shared" si="28"/>
+        <v>-396213</v>
+      </c>
+      <c r="G25" s="94">
+        <f t="shared" si="28"/>
+        <v>-74014</v>
+      </c>
+      <c r="H25" s="94">
+        <f t="shared" si="28"/>
+        <v>-294040</v>
+      </c>
+      <c r="I25" s="94">
+        <f t="shared" si="28"/>
+        <v>-888663</v>
+      </c>
+      <c r="J25" s="94">
+        <f t="shared" si="28"/>
+        <v>-773046</v>
+      </c>
+      <c r="K25" s="94">
+        <f t="shared" si="28"/>
+        <v>-2240578</v>
+      </c>
+      <c r="L25" s="94">
+        <f t="shared" si="28"/>
+        <v>-1063000</v>
+      </c>
+      <c r="M25" s="94">
+        <f t="shared" si="28"/>
+        <v>-775000</v>
+      </c>
+      <c r="N25" s="94">
+        <f t="shared" si="28"/>
+        <v>862000</v>
+      </c>
+      <c r="O25" s="101">
+        <f t="shared" si="28"/>
+        <v>4347234.3749999981</v>
+      </c>
+      <c r="P25" s="101">
+        <f t="shared" ref="P25" si="29">+P23-P24</f>
+        <v>6092418.75</v>
+      </c>
+      <c r="Q25" s="101">
+        <f t="shared" ref="Q25" si="30">+Q23-Q24</f>
+        <v>8969766.0937499963</v>
+      </c>
+      <c r="R25" s="101">
+        <f t="shared" ref="R25" si="31">+R23-R24</f>
+        <v>12383835.75</v>
+      </c>
+      <c r="S25" s="101">
+        <f t="shared" ref="S25" si="32">+S23-S24</f>
+        <v>20154363.074999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="89"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="92"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
+      <c r="Q26" s="99"/>
+      <c r="R26" s="99"/>
+      <c r="S26" s="99"/>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="99"/>
+      <c r="P27" s="99"/>
+      <c r="Q27" s="99"/>
+      <c r="R27" s="99"/>
+      <c r="S27" s="99"/>
+    </row>
+    <row r="28" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A28" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="96"/>
+      <c r="L28" s="96"/>
+      <c r="M28" s="96"/>
+      <c r="N28" s="96"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="102"/>
+      <c r="Q28" s="102"/>
+      <c r="R28" s="102"/>
+      <c r="S28" s="102"/>
+    </row>
+    <row r="29" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A29" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="C29" s="96"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="96"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
+      <c r="L29" s="93"/>
+      <c r="M29" s="91">
+        <f>+M5/L5-1</f>
+        <v>0.49763535119413738</v>
+      </c>
+      <c r="N29" s="91">
+        <f>+N5/M5-1</f>
+        <v>0.36583926278912893</v>
+      </c>
+      <c r="O29" s="103">
+        <v>1.0731707317073171</v>
+      </c>
+      <c r="P29" s="103">
+        <v>0.7</v>
+      </c>
+      <c r="Q29" s="103">
+        <v>0.63529411764705879</v>
+      </c>
+      <c r="R29" s="103">
+        <v>0.58273381294964022</v>
+      </c>
+      <c r="S29" s="103">
+        <v>0.59090909090909083</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A30" s="89" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93">
+        <f>+L6/L5*1000</f>
+        <v>75420.280173203908</v>
+      </c>
+      <c r="M30" s="93">
+        <f>+M6/M5*1000</f>
+        <v>56631.742716017143</v>
+      </c>
+      <c r="N30" s="93">
+        <f>+N6/N5*1000</f>
+        <v>54237.801174528387</v>
+      </c>
+      <c r="O30" s="98">
+        <v>50000</v>
+      </c>
+      <c r="P30" s="98">
+        <v>40000</v>
+      </c>
+      <c r="Q30" s="98">
+        <v>35000</v>
+      </c>
+      <c r="R30" s="98">
+        <v>30000</v>
+      </c>
+      <c r="S30" s="98">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19">
+      <c r="A31" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="92"/>
+      <c r="D31" s="90">
+        <f>+D7/C7-1</f>
+        <v>4.2887898305387528E-2</v>
+      </c>
+      <c r="E31" s="90">
+        <f t="shared" ref="E31:S31" si="33">+E7/D7-1</f>
+        <v>0.74948605495785658</v>
+      </c>
+      <c r="F31" s="90">
+        <f t="shared" si="33"/>
+        <v>1.0233644402228728</v>
+      </c>
+      <c r="G31" s="90">
+        <f t="shared" si="33"/>
+        <v>3.8722728768608317</v>
+      </c>
+      <c r="H31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.58845907814070642</v>
+      </c>
+      <c r="I31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.26503272306147285</v>
+      </c>
+      <c r="J31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.73012574069611524</v>
+      </c>
+      <c r="K31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.67978989539054413</v>
+      </c>
+      <c r="L31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.8251088061988896</v>
+      </c>
+      <c r="M31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.14524020315921904</v>
+      </c>
+      <c r="N31" s="90">
+        <f t="shared" si="33"/>
+        <v>0.28309870615998056</v>
+      </c>
+      <c r="O31" s="104">
+        <f t="shared" si="33"/>
+        <v>0.85304096905124327</v>
+      </c>
+      <c r="P31" s="104">
+        <f t="shared" si="33"/>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="Q31" s="104">
+        <f t="shared" si="33"/>
+        <v>0.43088235294117672</v>
+      </c>
+      <c r="R31" s="104">
+        <f t="shared" si="33"/>
+        <v>0.35662898252826292</v>
+      </c>
+      <c r="S31" s="104">
+        <f t="shared" si="33"/>
+        <v>0.59090909090909105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19">
+      <c r="A32" s="88" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="90">
+        <f>+C11/C7</f>
+        <v>0.9148227222783023</v>
+      </c>
+      <c r="D32" s="90">
+        <f t="shared" ref="D32:N32" si="34">+D11/D7</f>
+        <v>0.73676591516480505</v>
+      </c>
+      <c r="E32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.69842148040070118</v>
+      </c>
+      <c r="F32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.92724364558530303</v>
+      </c>
+      <c r="G32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.77339810955671129</v>
+      </c>
+      <c r="H32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.72433619021772433</v>
+      </c>
+      <c r="I32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.7717505452882768</v>
+      </c>
+      <c r="J32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.771539022407006</v>
+      </c>
+      <c r="K32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.81099293623957169</v>
+      </c>
+      <c r="L32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.81165835701971012</v>
+      </c>
+      <c r="M32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.83444543901049717</v>
+      </c>
+      <c r="N32" s="90">
+        <f t="shared" si="34"/>
+        <v>0.7897640791476408</v>
+      </c>
+      <c r="O32" s="104">
+        <v>0.75</v>
+      </c>
+      <c r="P32" s="104">
+        <v>0.75</v>
+      </c>
+      <c r="Q32" s="104">
+        <v>0.75</v>
+      </c>
+      <c r="R32" s="104">
+        <v>0.75</v>
+      </c>
+      <c r="S32" s="104">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19">
+      <c r="A33" s="88" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="90">
+        <f>1-C10/C6</f>
+        <v>8.5177277721697697E-2</v>
+      </c>
+      <c r="D33" s="90">
+        <f t="shared" ref="D33:S33" si="35">1-D10/D6</f>
+        <v>0.17610581182142193</v>
+      </c>
+      <c r="E33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.22269936998546125</v>
+      </c>
+      <c r="F33" s="90">
+        <f t="shared" si="35"/>
+        <v>3.6404035271027424E-2</v>
+      </c>
+      <c r="G33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.22720551650677301</v>
+      </c>
+      <c r="H33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.28641821183287597</v>
+      </c>
+      <c r="I33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.24530275946926106</v>
+      </c>
+      <c r="J33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.2520459736667986</v>
+      </c>
+      <c r="K33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.22907657681018123</v>
+      </c>
+      <c r="L33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.23445854712395353</v>
+      </c>
+      <c r="M33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.21242975841698286</v>
+      </c>
+      <c r="N33" s="90">
+        <f t="shared" si="35"/>
+        <v>0.25616830665295931</v>
+      </c>
+      <c r="O33" s="104">
+        <f t="shared" si="35"/>
+        <v>0.25</v>
+      </c>
+      <c r="P33" s="104">
+        <f t="shared" si="35"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="Q33" s="104">
+        <f t="shared" si="35"/>
+        <v>0.25</v>
+      </c>
+      <c r="R33" s="104">
+        <f t="shared" si="35"/>
+        <v>0.25000000000000011</v>
+      </c>
+      <c r="S33" s="104">
+        <f t="shared" si="35"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19">
+      <c r="A34" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="90">
+        <f>+C18/C7</f>
+        <v>-0.46360201173811671</v>
+      </c>
+      <c r="D34" s="90">
+        <f t="shared" ref="D34:N34" si="36">+D18/D7</f>
+        <v>-1.2577777016377716</v>
+      </c>
+      <c r="E34" s="90">
+        <f t="shared" si="36"/>
+        <v>-1.231323625894772</v>
+      </c>
+      <c r="F34" s="90">
+        <f t="shared" si="36"/>
+        <v>-0.95408899084344811</v>
+      </c>
+      <c r="G34" s="90">
+        <f t="shared" si="36"/>
+        <v>-3.0436117081931127E-2</v>
+      </c>
+      <c r="H34" s="90">
+        <f t="shared" si="36"/>
+        <v>-5.8370300241749197E-2</v>
+      </c>
+      <c r="I34" s="90">
+        <f t="shared" si="36"/>
+        <v>-0.17711927138364197</v>
+      </c>
+      <c r="J34" s="90">
+        <f t="shared" si="36"/>
+        <v>-9.533248801594027E-2</v>
+      </c>
+      <c r="K34" s="90">
+        <f t="shared" si="36"/>
+        <v>-0.13879756446921956</v>
+      </c>
+      <c r="L34" s="90">
+        <f t="shared" si="36"/>
+        <v>-1.8079306649270769E-2</v>
+      </c>
+      <c r="M34" s="90">
+        <f t="shared" si="36"/>
+        <v>-2.8073887216209618E-3</v>
+      </c>
+      <c r="N34" s="90">
+        <f t="shared" si="36"/>
+        <v>6.3229325215626589E-2</v>
+      </c>
+      <c r="O34" s="104">
+        <f t="shared" ref="O34:S34" si="37">+O18/O7</f>
+        <v>0.11499999999999995</v>
+      </c>
+      <c r="P34" s="104">
+        <f t="shared" si="37"/>
+        <v>0.115</v>
+      </c>
+      <c r="Q34" s="104">
+        <f t="shared" si="37"/>
+        <v>0.11499999999999995</v>
+      </c>
+      <c r="R34" s="104">
+        <f t="shared" si="37"/>
+        <v>0.115</v>
+      </c>
+      <c r="S34" s="104">
+        <f t="shared" si="37"/>
+        <v>0.11499999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19">
+      <c r="A35" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="90">
+        <f>+C25/C7</f>
+        <v>-0.49793198324147109</v>
+      </c>
+      <c r="D35" s="90">
+        <f t="shared" ref="D35:N35" si="38">+D25/D7</f>
+        <v>-1.3219351743986842</v>
+      </c>
+      <c r="E35" s="90">
+        <f t="shared" si="38"/>
+        <v>-1.245635079954172</v>
+      </c>
+      <c r="F35" s="90">
+        <f t="shared" si="38"/>
+        <v>-0.95875921946686804</v>
+      </c>
+      <c r="G35" s="90">
+        <f t="shared" si="38"/>
+        <v>-3.6758950601342141E-2</v>
+      </c>
+      <c r="H35" s="90">
+        <f t="shared" si="38"/>
+        <v>-9.1934731468291842E-2</v>
+      </c>
+      <c r="I35" s="90">
+        <f t="shared" si="38"/>
+        <v>-0.21963853411681836</v>
+      </c>
+      <c r="J35" s="90">
+        <f t="shared" si="38"/>
+        <v>-0.11043306040514665</v>
+      </c>
+      <c r="K35" s="90">
+        <f t="shared" si="38"/>
+        <v>-0.19054557750223641</v>
+      </c>
+      <c r="L35" s="90">
+        <f t="shared" si="38"/>
+        <v>-4.9531708680862964E-2</v>
+      </c>
+      <c r="M35" s="90">
+        <f t="shared" si="38"/>
+        <v>-3.1532264626902111E-2</v>
+      </c>
+      <c r="N35" s="90">
+        <f t="shared" si="38"/>
+        <v>2.7333840690005072E-2</v>
+      </c>
+      <c r="O35" s="104">
+        <f t="shared" ref="O35:S35" si="39">+O25/O7</f>
+        <v>7.4391176470588197E-2</v>
+      </c>
+      <c r="P35" s="104">
+        <f t="shared" si="39"/>
+        <v>7.6658304498269894E-2</v>
+      </c>
+      <c r="Q35" s="104">
+        <f t="shared" si="39"/>
+        <v>7.8876322471434571E-2</v>
+      </c>
+      <c r="R35" s="104">
+        <f t="shared" si="39"/>
+        <v>8.0271176470588235E-2</v>
+      </c>
+      <c r="S35" s="104">
+        <f t="shared" si="39"/>
+        <v>8.2116070588235265E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19">
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="90"/>
+      <c r="J36" s="90"/>
+      <c r="K36" s="90"/>
+      <c r="L36" s="90"/>
+      <c r="M36" s="90"/>
+      <c r="N36" s="90"/>
+      <c r="O36" s="90"/>
+      <c r="P36" s="90"/>
+      <c r="Q36" s="90"/>
+      <c r="R36" s="90"/>
+      <c r="S36" s="90"/>
+    </row>
+    <row r="37" spans="1:19">
+      <c r="A37" s="88" t="s">
+        <v>162</v>
+      </c>
+      <c r="C37" s="90">
+        <f>+C14/C$7</f>
+        <v>0.17224837640584942</v>
+      </c>
+      <c r="D37" s="90">
+        <f t="shared" ref="D37:N37" si="40">+D14/D$7</f>
+        <v>0.79658055231960534</v>
+      </c>
+      <c r="E37" s="90">
+        <f t="shared" si="40"/>
+        <v>1.0232028671869644</v>
+      </c>
+      <c r="F37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.66297404030431495</v>
+      </c>
+      <c r="G37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.11521055914687688</v>
+      </c>
+      <c r="H37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.14529339448141482</v>
+      </c>
+      <c r="I37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.17743340686229075</v>
+      </c>
+      <c r="J37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.11919889510654942</v>
+      </c>
+      <c r="K37" s="90">
+        <f t="shared" si="40"/>
+        <v>0.11719552527304983</v>
+      </c>
+      <c r="L37" s="90">
+        <f t="shared" si="40"/>
+        <v>6.8030380690554962E-2</v>
+      </c>
+      <c r="M37" s="90">
+        <f t="shared" si="40"/>
+        <v>5.4642363088941333E-2</v>
+      </c>
+      <c r="N37" s="90">
+        <f t="shared" si="40"/>
+        <v>4.7279299847792999E-2</v>
+      </c>
+      <c r="O37" s="90">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="P37" s="90">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="Q37" s="90">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="R37" s="90">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="S37" s="90">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19">
+      <c r="A38" s="88" t="s">
+        <v>163</v>
+      </c>
+      <c r="C38" s="90">
+        <f t="shared" ref="C38:N38" si="41">+C15/C$7</f>
+        <v>0.37653091305396497</v>
+      </c>
+      <c r="D38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.72443123415336119</v>
+      </c>
+      <c r="E38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.50969927830710626</v>
+      </c>
+      <c r="F38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.36387130495383008</v>
+      </c>
+      <c r="G38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.14182744837834294</v>
+      </c>
+      <c r="H38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.18874071554261002</v>
+      </c>
+      <c r="I38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.22793531923307445</v>
+      </c>
+      <c r="J38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.2045945705023848</v>
+      </c>
+      <c r="K38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.21060910295659802</v>
+      </c>
+      <c r="L38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.1321000885326872</v>
+      </c>
+      <c r="M38" s="90">
+        <f t="shared" si="41"/>
+        <v>0.10765725445520384</v>
+      </c>
+      <c r="N38" s="90">
+        <f t="shared" si="41"/>
+        <v>9.9727295788939629E-2</v>
+      </c>
+      <c r="O38" s="90">
+        <v>0.08</v>
+      </c>
+      <c r="P38" s="90">
+        <v>0.08</v>
+      </c>
+      <c r="Q38" s="90">
+        <v>0.08</v>
+      </c>
+      <c r="R38" s="90">
+        <v>0.08</v>
+      </c>
+      <c r="S38" s="90">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19">
+      <c r="A39" s="88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="90">
+        <f t="shared" ref="C39:N39" si="42">+C16/C$7</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="E39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="L39" s="90">
+        <f t="shared" si="42"/>
+        <v>6.2904804063184383E-3</v>
+      </c>
+      <c r="M39" s="90">
+        <f t="shared" si="42"/>
+        <v>6.0623321669785986E-3</v>
+      </c>
+      <c r="N39" s="90">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="90">
+        <v>0.01</v>
+      </c>
+      <c r="P39" s="90">
+        <v>0.01</v>
+      </c>
+      <c r="Q39" s="90">
+        <v>0.01</v>
+      </c>
+      <c r="R39" s="90">
+        <v>0.01</v>
+      </c>
+      <c r="S39" s="90">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19">
+      <c r="A40" s="88" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="90"/>
+      <c r="D40" s="90"/>
+      <c r="E40" s="90"/>
+      <c r="F40" s="90"/>
+      <c r="G40" s="90"/>
+      <c r="H40" s="90"/>
+      <c r="I40" s="90"/>
+      <c r="J40" s="90">
+        <f>+J24/J23</f>
+        <v>-3.5771516772336767E-2</v>
+      </c>
+      <c r="K40" s="90">
+        <f t="shared" ref="K40:S40" si="43">+K24/K23</f>
+        <v>-1.4280463116876533E-2</v>
+      </c>
+      <c r="L40" s="90">
+        <f t="shared" si="43"/>
+        <v>-5.7711442786069649E-2</v>
+      </c>
+      <c r="M40" s="90">
+        <f t="shared" si="43"/>
+        <v>-0.16541353383458646</v>
+      </c>
+      <c r="N40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.2530329289428076</v>
+      </c>
+      <c r="O40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+      <c r="P40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+      <c r="R40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+      <c r="S40" s="90">
+        <f t="shared" si="43"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19">
+      <c r="C41" s="92"/>
+      <c r="D41" s="92"/>
+      <c r="E41" s="92"/>
+      <c r="F41" s="92"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="92"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="92"/>
+      <c r="K41" s="92"/>
+      <c r="L41" s="92"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="92"/>
+      <c r="O41" s="92"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="92"/>
+      <c r="S41" s="92"/>
+    </row>
+    <row r="42" spans="1:19">
+      <c r="A42" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="C42" s="92"/>
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="92"/>
+      <c r="J42" s="92"/>
+      <c r="K42" s="92"/>
+      <c r="L42" s="92"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="92"/>
+      <c r="O42" s="92"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="92"/>
+      <c r="S42" s="92"/>
+    </row>
+    <row r="43" spans="1:19">
+      <c r="A43" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+      <c r="O43" s="92"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="92"/>
+      <c r="S43" s="92"/>
+    </row>
+    <row r="44" spans="1:19">
+      <c r="A44" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="92"/>
+      <c r="D44" s="92"/>
+      <c r="E44" s="92"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="92"/>
+      <c r="J44" s="92"/>
+      <c r="K44" s="92"/>
+      <c r="L44" s="92"/>
+      <c r="M44" s="92"/>
+      <c r="N44" s="92"/>
+      <c r="O44" s="92"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="92"/>
+      <c r="S44" s="92"/>
+    </row>
+    <row r="45" spans="1:19">
+      <c r="A45" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="C45" s="92"/>
+      <c r="D45" s="92"/>
+      <c r="E45" s="92"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="92"/>
+      <c r="J45" s="92"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="92"/>
+      <c r="N45" s="92"/>
+      <c r="O45" s="92"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="92"/>
+      <c r="S45" s="92"/>
+    </row>
+    <row r="47" spans="1:19" s="95" customFormat="1" ht="18.75">
+      <c r="A47" s="95" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" s="96"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
+      <c r="F47" s="96"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="96"/>
+      <c r="I47" s="96"/>
+      <c r="J47" s="96"/>
+      <c r="K47" s="96"/>
+      <c r="L47" s="96"/>
+      <c r="M47" s="96"/>
+      <c r="N47" s="96"/>
+      <c r="O47" s="96"/>
+      <c r="P47" s="96"/>
+      <c r="Q47" s="96"/>
+      <c r="R47" s="96"/>
+      <c r="S47" s="96"/>
+    </row>
+    <row r="49" spans="1:19" s="89" customFormat="1">
+      <c r="A49" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="94"/>
+      <c r="D49" s="94"/>
+      <c r="E49" s="94"/>
+      <c r="F49" s="94"/>
+      <c r="G49" s="94"/>
+      <c r="H49" s="94"/>
+      <c r="I49" s="94"/>
+      <c r="J49" s="94">
+        <f>+J18</f>
+        <v>-667340</v>
+      </c>
+      <c r="K49" s="94">
+        <f t="shared" ref="K49:S49" si="44">+K18</f>
+        <v>-1632086</v>
+      </c>
+      <c r="L49" s="94">
+        <f t="shared" si="44"/>
+        <v>-388000</v>
+      </c>
+      <c r="M49" s="94">
+        <f t="shared" si="44"/>
+        <v>-69000</v>
+      </c>
+      <c r="N49" s="94">
+        <f t="shared" si="44"/>
+        <v>1994000</v>
+      </c>
+      <c r="O49" s="101">
+        <f t="shared" si="44"/>
+        <v>6720312.4999999981</v>
+      </c>
+      <c r="P49" s="101">
+        <f t="shared" si="44"/>
+        <v>9139625</v>
+      </c>
+      <c r="Q49" s="101">
+        <f t="shared" si="44"/>
+        <v>13077728.124999996</v>
+      </c>
+      <c r="R49" s="101">
+        <f t="shared" si="44"/>
+        <v>17741625</v>
+      </c>
+      <c r="S49" s="101">
+        <f t="shared" si="44"/>
+        <v>28225312.499999993</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="88" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19">
+      <c r="A52" s="88" t="s">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C533993-1B50-4EA9-8FC4-256940C84CD7}">
   <dimension ref="A2:V11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6"/>
+      <selection activeCell="M10" sqref="M10:Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -8709,7 +11085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{949037C2-1E4C-46F1-89E2-A43EF059AA7B}">
   <dimension ref="A2:J34"/>
   <sheetViews>
@@ -9060,7 +11436,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1199D1C8-1672-4549-A90A-B95F0316D5A5}">
   <dimension ref="B1:Q20"/>
   <sheetViews>
